--- a/Data/vo2maksTest.xlsx
+++ b/Data/vo2maksTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows User\Documents\Master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows User\Documents\Master\Arbeidskrav 1 innlevering 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E9076F5-91B5-4352-BFBA-ECF342C8D834}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BCEBAC-122A-4DE3-97E3-96BDD206E4B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{525C726F-614B-4854-A6C7-FB1C4DE28A17}"/>
   </bookViews>
@@ -30,10 +30,10 @@
     <t>FP</t>
   </si>
   <si>
-    <t>Pre</t>
+    <t>test2</t>
   </si>
   <si>
-    <t>Post</t>
+    <t>test1</t>
   </si>
 </sst>
 </file>
@@ -398,10 +398,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
